--- a/summaries/trials/HUP/lineages.xlsx
+++ b/summaries/trials/HUP/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">lineage</t>
   </si>
   <si>
+    <t xml:space="preserve">HUP|molpath-sdrop4|Unknown|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUP|molpath-seq1|Unknown|20210122</t>
   </si>
   <si>
@@ -30,6 +36,12 @@
   </si>
   <si>
     <t xml:space="preserve">B.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUP|sdrop2_molpath|0.9%_Saline|20210120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.375</t>
   </si>
 </sst>
 </file>
@@ -385,6 +397,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/summaries/trials/HUP/lineages.xlsx
+++ b/summaries/trials/HUP/lineages.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">HUP|sdrop1_molpath|0.9%_Saline|20210108</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.2</t>
+    <t xml:space="preserve">VSP0571</t>
   </si>
 </sst>
 </file>
